--- a/Manual Test Case.xlsx
+++ b/Manual Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AFEE6F-A1C9-4DE9-AE18-D459AE6B3B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FF1A70-18BE-4320-A637-F78FD58941F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>TC_01</t>
   </si>
@@ -178,6 +167,33 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Precondition : - Open the browser and navigate to https://www.saucedemo.com/.
+Enter  username and invalid password.
+Click on the Login button.
+Verify that an error message is displayed indicating invalid login credentials.</t>
+  </si>
+  <si>
+    <t>Precondition : - Open the browser and navigate to https://www.saucedemo.com/.
+Enter invalid username and invalid password.
+Click on the Login button.
+Verify that an error message is displayed indicating invalid login credentials.</t>
+  </si>
+  <si>
+    <t>Precondition : - Open the browser and navigate to https://www.saucedemo.com/.
+No username and Password should be entered.
+Click on the Login button.
+Verify that an error message is displayed indicating invalid login credentials.</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
   </si>
 </sst>
 </file>
@@ -646,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>39</v>
@@ -837,7 +853,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -848,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>39</v>
@@ -878,7 +894,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -889,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>39</v>
@@ -918,6 +934,129 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -927,6 +1066,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6DC24CE4EF5C6448507A473A5C91855" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b21b6912e14f502fc3802cf62dd26c39">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="894e03f2-30a6-43db-a8e1-91c988714424" xmlns:ns4="9d3f4b24-159c-4903-b082-fdbcdea2a8f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d7b2872455a82a9f11ff44b3b65dfec" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1140,15 +1288,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1159,6 +1298,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCC3500-D318-4370-A2CA-D8C128A96333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F96A0D-D626-4A4E-969F-B81247D10D3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1174,14 +1321,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCC3500-D318-4370-A2CA-D8C128A96333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
